--- a/biology/Médecine/1788_en_santé_et_médecine/1788_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1788_en_santé_et_médecine/1788_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1788_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1788_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1788 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1788_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1788_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le 17 mai, en France, Jean François Coste (1741-1819) est nommé premier médecin des armées et membre du conseil de santé des armées[1] puis :
-Le 18 mai, établissement d'un conseil d'administration et d'un conseil de santé pour les hôpitaux militaires[2] où est nommé Paul-Joseph Barthez (1734-1806)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le 17 mai, en France, Jean François Coste (1741-1819) est nommé premier médecin des armées et membre du conseil de santé des armées puis :
+Le 18 mai, établissement d'un conseil d'administration et d'un conseil de santé pour les hôpitaux militaires où est nommé Paul-Joseph Barthez (1734-1806).
 Sans date
-Des médecins montrent qu’un chien affaibli par une hémorragie est réanimé par une injection de sang[4].</t>
+Des médecins montrent qu’un chien affaibli par une hémorragie est réanimé par une injection de sang.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1788_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1788_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Publication importante</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Tenon fait publier son Mémoire sur les hôpitaux de Paris[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tenon fait publier son Mémoire sur les hôpitaux de Paris.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1788_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1788_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Médaille Copley : Charles Blagden (1748-1820)[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Médaille Copley : Charles Blagden (1748-1820).</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1788_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1788_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>bapt. 18 mars : Karl Wilhelm Flügel, (mort le 5 juin 1857), médecin suisse.
 10 août : Jean Lugol (mort en 1851 à 63 ans), médecin français.
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1788_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1788_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,11 +658,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>20 mars : François Poulletier de La Salle (né en 1719), médecin et chimiste français.
 22 mars : Maximilian Stoll (né en 1742),  médecin allemand.
-8 mai : Giovanni Antonio Scopoli (né en 1723), médecin et naturaliste austro-italien[7].
+8 mai : Giovanni Antonio Scopoli (né en 1723), médecin et naturaliste austro-italien.
 10 décembre : Joseph-Marie-François de Lassone (né en 1717), médecin français.
 22 décembre : Percivall Pott (né en 1714), chirurgien anglais.
 Sans date
